--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd2-Cd48.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd2-Cd48.xlsx
@@ -531,28 +531,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2115573333333333</v>
+        <v>0.02123233333333334</v>
       </c>
       <c r="H2">
-        <v>0.634672</v>
+        <v>0.063697</v>
       </c>
       <c r="I2">
-        <v>0.4893177236123372</v>
+        <v>0.08772724768620539</v>
       </c>
       <c r="J2">
-        <v>0.4893177236123373</v>
+        <v>0.08772724768620538</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>12.83592466666667</v>
+        <v>0.007787</v>
       </c>
       <c r="N2">
-        <v>38.507774</v>
+        <v>0.023361</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.715533993347556</v>
+        <v>0.0001653361796666667</v>
       </c>
       <c r="R2">
-        <v>24.439805940128</v>
+        <v>0.001488025617</v>
       </c>
       <c r="S2">
-        <v>0.4893177236123372</v>
+        <v>0.08772724768620539</v>
       </c>
       <c r="T2">
-        <v>0.4893177236123373</v>
+        <v>0.08772724768620538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>0.2207943333333333</v>
       </c>
       <c r="H3">
-        <v>0.6623829999999999</v>
+        <v>0.6623830000000001</v>
       </c>
       <c r="I3">
-        <v>0.5106822763876627</v>
+        <v>0.9122727523137947</v>
       </c>
       <c r="J3">
-        <v>0.5106822763876628</v>
+        <v>0.9122727523137947</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>12.83592466666667</v>
+        <v>0.007787</v>
       </c>
       <c r="N3">
-        <v>38.507774</v>
+        <v>0.023361</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.834099429493555</v>
+        <v>0.001719325473666667</v>
       </c>
       <c r="R3">
-        <v>25.506894865442</v>
+        <v>0.015473929263</v>
       </c>
       <c r="S3">
-        <v>0.5106822763876627</v>
+        <v>0.9122727523137947</v>
       </c>
       <c r="T3">
-        <v>0.5106822763876628</v>
+        <v>0.9122727523137947</v>
       </c>
     </row>
   </sheetData>
